--- a/experiment/solution_report_template.xlsx
+++ b/experiment/solution_report_template.xlsx
@@ -15,15 +15,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>Objective value</t>
+  </si>
+  <si>
+    <t>Optimality Gap</t>
+  </si>
+  <si>
+    <t>Integrality Gap</t>
+  </si>
+  <si>
+    <t>Duality Gap</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>CPLEX (time)</t>
+  </si>
+  <si>
+    <t>DSP (time)</t>
+  </si>
   <si>
     <t>CPLEX</t>
   </si>
   <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>obj</t>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>DCAP</t>
+  </si>
+  <si>
+    <t>DCAP_2_3_3_200</t>
+  </si>
+  <si>
+    <t>DCAP_2_3_3_300</t>
+  </si>
+  <si>
+    <t>DCAP_2_3_3_500</t>
+  </si>
+  <si>
+    <t>DCAP_2_3_3_10000</t>
+  </si>
+  <si>
+    <t>DCAP_2_4_3_200</t>
+  </si>
+  <si>
+    <t>DCAP_2_4_3_300</t>
+  </si>
+  <si>
+    <t>DCAP_2_4_3_500</t>
+  </si>
+  <si>
+    <t>DCAP_2_4_3_10000</t>
+  </si>
+  <si>
+    <t>DCAP_3_3_2_200</t>
+  </si>
+  <si>
+    <t>DCAP_3_3_2_300</t>
+  </si>
+  <si>
+    <t>DCAP_3_3_2_500</t>
+  </si>
+  <si>
+    <t>DCAP_3_3_2_10000</t>
+  </si>
+  <si>
+    <t>DCAP_3_4_2_200</t>
+  </si>
+  <si>
+    <t>DCAP_3_4_2_300</t>
+  </si>
+  <si>
+    <t>DCAP_3_4_2_500</t>
+  </si>
+  <si>
+    <t>DCAP_3_4_2_10000</t>
   </si>
 </sst>
 </file>
@@ -33,11 +105,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -53,6 +126,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,9 +175,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -119,31 +213,177 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.7551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:A18"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/experiment/solution_report_template.xlsx
+++ b/experiment/solution_report_template.xlsx
@@ -5,97 +5,276 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
-  <si>
-    <t>Objective value</t>
-  </si>
-  <si>
-    <t>Optimality Gap</t>
-  </si>
-  <si>
-    <t>Integrality Gap</t>
-  </si>
-  <si>
-    <t>Duality Gap</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>CPLEX (time)</t>
-  </si>
-  <si>
-    <t>DSP (time)</t>
-  </si>
-  <si>
-    <t>CPLEX</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>DCAP</t>
-  </si>
-  <si>
-    <t>DCAP_2_3_3_200</t>
-  </si>
-  <si>
-    <t>DCAP_2_3_3_300</t>
-  </si>
-  <si>
-    <t>DCAP_2_3_3_500</t>
-  </si>
-  <si>
-    <t>DCAP_2_3_3_10000</t>
-  </si>
-  <si>
-    <t>DCAP_2_4_3_200</t>
-  </si>
-  <si>
-    <t>DCAP_2_4_3_300</t>
-  </si>
-  <si>
-    <t>DCAP_2_4_3_500</t>
-  </si>
-  <si>
-    <t>DCAP_2_4_3_10000</t>
-  </si>
-  <si>
-    <t>DCAP_3_3_2_200</t>
-  </si>
-  <si>
-    <t>DCAP_3_3_2_300</t>
-  </si>
-  <si>
-    <t>DCAP_3_3_2_500</t>
-  </si>
-  <si>
-    <t>DCAP_3_3_2_10000</t>
-  </si>
-  <si>
-    <t>DCAP_3_4_2_200</t>
-  </si>
-  <si>
-    <t>DCAP_3_4_2_300</t>
-  </si>
-  <si>
-    <t>DCAP_3_4_2_500</t>
-  </si>
-  <si>
-    <t>DCAP_3_4_2_10000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+  <si>
+    <t xml:space="preserve">Objective value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimality Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrality Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duality Gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPLEX (time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP (time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPLEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_3_3_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_3_3_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_3_3_500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_3_3_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_4_3_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_4_3_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_4_3_500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_2_4_3_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_3_2_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_3_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_3_2_500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_3_2_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_4_2_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_4_2_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_4_2_500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCAP_3_4_2_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D0_50_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D1_50_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D2_50_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D3_50_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D0_100_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D1_100_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D2_100_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPTSPs_D3_100_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKP_120_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKP_120_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKP_120_300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKP_120_500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMKP_120_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZES_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZES_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZES_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZES_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_5_25_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_5_25_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_5_25_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_5_50_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_5_50_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_5_50_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_10_50_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_10_50_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_10_50_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_15_45_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_15_45_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLP_15_45_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_FallWD_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_FallWD_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_FallWD_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_FallWE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_FallWE_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_FallWE_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_WinterWD_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_WinterWD_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_WinterWD_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_WinterWE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_WinterWE_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_WinterWE_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SpringWD_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SpringWD_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SpringWD_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SpringWE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SpringWE_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SpringWE_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SummerWD_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SummerWD_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SummerWD_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SummerWE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SummerWE_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUC_SummerWE_100</t>
   </si>
 </sst>
 </file>
@@ -103,7 +282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -175,7 +354,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,12 +363,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -213,24 +400,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,16 +564,349 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="B60" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="B61" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+      <c r="B62" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="B66" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+      <c r="B69" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+      <c r="B70" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+      <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="A48:A71"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/experiment/solution_report_template.xlsx
+++ b/experiment/solution_report_template.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t xml:space="preserve">Objective value</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimality Gap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrality Gap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duality Gap</t>
+    <t xml:space="preserve">Optimality Gap (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrality Gap ([0,1])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duality Gap (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVPI (%)</t>
   </si>
   <si>
     <t xml:space="preserve">problem</t>
@@ -40,10 +43,10 @@
     <t xml:space="preserve">instance</t>
   </si>
   <si>
-    <t xml:space="preserve">CPLEX (time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSP (time)</t>
+    <t xml:space="preserve">CPLEX  (time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP  (time)</t>
   </si>
   <si>
     <t xml:space="preserve">CPLEX</t>
@@ -284,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -305,11 +308,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,8 +361,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -372,14 +378,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,503 +398,507 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.08"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
+      <c r="A19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>36</v>
+      <c r="A27" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>42</v>
+      <c r="A32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>47</v>
+      <c r="A36" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>60</v>
+      <c r="A48" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="6">
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="A27:A31"/>
